--- a/T07/Daten/PropAM.xlsx
+++ b/T07/Daten/PropAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\Desktop\T07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\Documents\GitHub\Fortgeschrittenenpraktikum\T07\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3125,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF955210-2D0B-46CD-9543-647BFC943C37}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H56" workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" ref="A64:A84" si="2">A63+40</f>
+        <f t="shared" ref="A64:A81" si="2">A63+40</f>
         <v>1320</v>
       </c>
       <c r="B64">

--- a/T07/Daten/PropAM.xlsx
+++ b/T07/Daten/PropAM.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\Documents\GitHub\Fortgeschrittenenpraktikum\T07\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D88FDA-8BF4-411E-95FB-225853FE362D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{09FC688E-82DC-40E0-8C90-B8BA3EC52339}"/>
   </bookViews>
@@ -3123,15 +3124,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF955210-2D0B-46CD-9543-647BFC943C37}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H56" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>250</v>
       </c>
@@ -3141,8 +3142,11 @@
       <c r="C1">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+10</f>
         <v>260</v>
@@ -3153,8 +3157,11 @@
       <c r="C2">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+10</f>
         <v>270</v>
@@ -3165,8 +3172,11 @@
       <c r="C3">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A22" si="0">A3+10</f>
         <v>280</v>
@@ -3177,8 +3187,11 @@
       <c r="C4">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>290</v>
@@ -3189,8 +3202,11 @@
       <c r="C5">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -3201,8 +3217,11 @@
       <c r="C6">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>310</v>
@@ -3213,8 +3232,11 @@
       <c r="C7">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>320</v>
@@ -3225,8 +3247,11 @@
       <c r="C8">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -3237,8 +3262,11 @@
       <c r="C9">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -3249,8 +3277,11 @@
       <c r="C10">
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -3261,8 +3292,11 @@
       <c r="C11">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>360</v>
@@ -3273,8 +3307,11 @@
       <c r="C12">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>370</v>
@@ -3285,8 +3322,11 @@
       <c r="C13">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>380</v>
@@ -3297,8 +3337,11 @@
       <c r="C14">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>390</v>
@@ -3309,8 +3352,11 @@
       <c r="C15">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -3321,8 +3367,11 @@
       <c r="C16">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>410</v>
@@ -3333,8 +3382,11 @@
       <c r="C17">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>420</v>
@@ -3345,8 +3397,11 @@
       <c r="C18">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>430</v>
@@ -3357,8 +3412,11 @@
       <c r="C19">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>440</v>
@@ -3369,8 +3427,11 @@
       <c r="C20">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>450</v>
@@ -3381,8 +3442,11 @@
       <c r="C21">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>460</v>
@@ -3393,8 +3457,11 @@
       <c r="C22">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>480</v>
       </c>
@@ -3404,8 +3471,11 @@
       <c r="C23">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>A23+20</f>
         <v>500</v>
@@ -3416,8 +3486,11 @@
       <c r="C24">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" ref="A25:A60" si="1">A24+20</f>
         <v>520</v>
@@ -3428,8 +3501,11 @@
       <c r="C25">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>540</v>
@@ -3440,8 +3516,11 @@
       <c r="C26">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>560</v>
@@ -3452,8 +3531,11 @@
       <c r="C27">
         <v>142</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>580</v>
@@ -3464,8 +3546,11 @@
       <c r="C28">
         <v>142</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>600</v>
@@ -3476,8 +3561,11 @@
       <c r="C29">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>620</v>
@@ -3488,8 +3576,11 @@
       <c r="C30">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>640</v>
@@ -3500,8 +3591,11 @@
       <c r="C31">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>660</v>
@@ -3512,8 +3606,11 @@
       <c r="C32">
         <v>162</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>680</v>
@@ -3524,8 +3621,11 @@
       <c r="C33">
         <v>168</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>700</v>
@@ -3536,8 +3636,11 @@
       <c r="C34">
         <v>176</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>720</v>
@@ -3548,8 +3651,11 @@
       <c r="C35">
         <v>184</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>740</v>
@@ -3560,8 +3666,11 @@
       <c r="C36">
         <v>190</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>760</v>
@@ -3572,8 +3681,11 @@
       <c r="C37">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>780</v>
@@ -3584,8 +3696,11 @@
       <c r="C38">
         <v>228</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>800</v>
@@ -3596,8 +3711,11 @@
       <c r="C39">
         <v>238</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>820</v>
@@ -3608,8 +3726,11 @@
       <c r="C40">
         <v>252</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>840</v>
@@ -3620,8 +3741,11 @@
       <c r="C41">
         <v>264</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>860</v>
@@ -3632,8 +3756,11 @@
       <c r="C42">
         <v>360</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>880</v>
@@ -3644,8 +3771,11 @@
       <c r="C43">
         <v>368</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>900</v>
@@ -3656,8 +3786,11 @@
       <c r="C44">
         <v>384</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>920</v>
@@ -3668,8 +3801,11 @@
       <c r="C45">
         <v>512</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>940</v>
@@ -3680,8 +3816,11 @@
       <c r="C46">
         <v>544</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>960</v>
@@ -3692,8 +3831,11 @@
       <c r="C47">
         <v>640</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>980</v>
@@ -3704,8 +3846,11 @@
       <c r="C48">
         <v>784</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3716,8 +3861,11 @@
       <c r="C49">
         <v>824</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>1020</v>
@@ -3728,8 +3876,11 @@
       <c r="C50">
         <v>1020</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>1040</v>
@@ -3740,8 +3891,11 @@
       <c r="C51">
         <v>1360</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>1060</v>
@@ -3752,8 +3906,11 @@
       <c r="C52">
         <v>1500</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>1080</v>
@@ -3764,8 +3921,11 @@
       <c r="C53">
         <v>1640</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>1100</v>
@@ -3776,8 +3936,11 @@
       <c r="C54">
         <v>1740</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>1120</v>
@@ -3788,8 +3951,11 @@
       <c r="C55">
         <v>1860</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>1140</v>
@@ -3800,8 +3966,11 @@
       <c r="C56">
         <v>2180</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>1160</v>
@@ -3812,8 +3981,11 @@
       <c r="C57">
         <v>2340</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>1180</v>
@@ -3824,8 +3996,11 @@
       <c r="C58">
         <v>2620</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>1200</v>
@@ -3836,8 +4011,11 @@
       <c r="C59">
         <v>3160</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>1220</v>
@@ -3848,8 +4026,11 @@
       <c r="C60">
         <v>3360</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>A60+20</f>
         <v>1240</v>
@@ -3860,8 +4041,11 @@
       <c r="C61">
         <v>3960</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1260</v>
       </c>
@@ -3871,8 +4055,11 @@
       <c r="C62">
         <v>6240</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>A61+40</f>
         <v>1280</v>
@@ -3883,8 +4070,11 @@
       <c r="C63">
         <v>6320</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" ref="A64:A81" si="2">A63+40</f>
         <v>1320</v>
@@ -3895,8 +4085,11 @@
       <c r="C64">
         <v>6320</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>1360</v>
@@ -3907,8 +4100,11 @@
       <c r="C65">
         <v>6400</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>1400</v>
@@ -3919,8 +4115,11 @@
       <c r="C66">
         <v>6400</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>1440</v>
@@ -3931,8 +4130,11 @@
       <c r="C67">
         <v>6400</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>1480</v>
@@ -3943,8 +4145,11 @@
       <c r="C68">
         <v>6480</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>1520</v>
@@ -3955,8 +4160,11 @@
       <c r="C69">
         <v>6560</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>1560</v>
@@ -3967,8 +4175,11 @@
       <c r="C70">
         <v>6560</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>1600</v>
@@ -3979,8 +4190,11 @@
       <c r="C71">
         <v>6640</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>1640</v>
@@ -3991,8 +4205,11 @@
       <c r="C72">
         <v>6640</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>1680</v>
@@ -4000,8 +4217,11 @@
       <c r="B73">
         <v>117454</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>1720</v>
@@ -4009,8 +4229,11 @@
       <c r="B74">
         <v>116660</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>1760</v>
@@ -4018,8 +4241,11 @@
       <c r="B75">
         <v>112102</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>1800</v>
@@ -4027,8 +4253,11 @@
       <c r="B76">
         <v>99499</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>1840</v>
@@ -4036,8 +4265,11 @@
       <c r="B77">
         <v>89320</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>1880</v>
@@ -4045,8 +4277,11 @@
       <c r="B78">
         <v>68030</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>1920</v>
@@ -4054,8 +4289,11 @@
       <c r="B79">
         <v>52707</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>1960</v>
@@ -4063,14 +4301,20 @@
       <c r="B80">
         <v>48932</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="B81">
         <v>46818</v>
+      </c>
+      <c r="D81">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
